--- a/Sprint-9/Sprint_9 Burndown-Backlog.xlsx
+++ b/Sprint-9/Sprint_9 Burndown-Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\breno\Downloads\adocao12\Sprint-9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danil\Desktop\PROJETO9\adocao\Sprint-9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection lockWindows="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="990" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint Backlog" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="52">
   <si>
     <t>SPRINT BACKLOG</t>
   </si>
@@ -105,10 +105,6 @@
     <t>Breno</t>
   </si>
   <si>
-    <t>Terça
-01/11/2016</t>
-  </si>
-  <si>
     <t>Breno DATA</t>
   </si>
   <si>
@@ -121,56 +117,8 @@
     <t>Danilo DATA</t>
   </si>
   <si>
-    <t>Quarta
-02/11/2016</t>
-  </si>
-  <si>
-    <t>Quinta
-03/11/2016</t>
-  </si>
-  <si>
-    <t>Sexta
-04/11/2016</t>
-  </si>
-  <si>
-    <t>Sábado
-05/11/2016</t>
-  </si>
-  <si>
-    <t>Domingo
-06/11/2016</t>
-  </si>
-  <si>
-    <t>Segunda
-07/11/2016</t>
-  </si>
-  <si>
     <t>Terça
 08/11/2016</t>
-  </si>
-  <si>
-    <t>Criar Classe Sessão</t>
-  </si>
-  <si>
-    <t>Criar Tela DadosAdm</t>
-  </si>
-  <si>
-    <t>Criar Método de Busca e Alteração dos Dados dos Adm</t>
-  </si>
-  <si>
-    <t>Mesclar Model e View e Tratar o ControllerMenu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modificação Tela DetalheAdoção </t>
-  </si>
-  <si>
-    <t>Modificação cadastro Administrador</t>
-  </si>
-  <si>
-    <t>Bug na Alteração dos Dados dos Candidatos</t>
-  </si>
-  <si>
-    <t>Bug na Visualização dos Candidatos e Adoções</t>
   </si>
   <si>
     <t>É necessário fazer testes unitários e testes de usabilidade para manter o sistema seguro e robusto</t>
@@ -230,6 +178,21 @@
     <t>Terça
 15/11/2016</t>
   </si>
+  <si>
+    <t>Desejo que o Sistema forneça uma opção para que os Administradores Avaliem os Pedidos de Adoção.</t>
+  </si>
+  <si>
+    <t>Criar Tela StatusAdocao</t>
+  </si>
+  <si>
+    <t>Criar Tela RelatórioAdocoes</t>
+  </si>
+  <si>
+    <t>Implementar TabbedPane na Tela de RelatorioAdocao</t>
+  </si>
+  <si>
+    <t>Modificar Model Adocao</t>
+  </si>
 </sst>
 </file>
 
@@ -239,7 +202,7 @@
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="165" formatCode="[$R$ -416]#,##0.00"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -310,12 +273,6 @@
       <color theme="0"/>
       <name val="Cambria"/>
       <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -592,26 +549,16 @@
     <xf numFmtId="4" fontId="8" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -641,6 +588,15 @@
     <xf numFmtId="4" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -662,6 +618,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -672,7 +631,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="185">
+  <dxfs count="167">
     <dxf>
       <fill>
         <patternFill>
@@ -800,258 +759,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1C4587"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1C4587"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1C4587"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1C4587"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1C4587"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF1C4587"/>
         </patternFill>
       </fill>
       <border diagonalUp="0" diagonalDown="0">
@@ -3416,35 +3123,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-01/11/2016</c:v>
+08/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-02/11/2016</c:v>
+09/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-03/11/2016</c:v>
+10/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-04/11/2016</c:v>
+11/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-05/11/2016</c:v>
+12/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-06/11/2016</c:v>
+13/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-07/11/2016</c:v>
+14/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-08/11/2016</c:v>
+15/11/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3456,28 +3163,28 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>13.5</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.8125</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.125</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.4375</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.75</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0625</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.375</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6875</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3549,35 +3256,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-01/11/2016</c:v>
+08/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-02/11/2016</c:v>
+09/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-03/11/2016</c:v>
+10/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-04/11/2016</c:v>
+11/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-05/11/2016</c:v>
+12/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-06/11/2016</c:v>
+13/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-07/11/2016</c:v>
+14/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-08/11/2016</c:v>
+15/11/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3589,31 +3296,31 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>13.5</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.23</c:v>
+                  <c:v>19.079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.48</c:v>
+                  <c:v>16.36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.03</c:v>
+                  <c:v>13.829999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6400000000000006</c:v>
+                  <c:v>12.279999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1900000000000004</c:v>
+                  <c:v>11.489999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.72000000000000064</c:v>
+                  <c:v>9.4199999999999982</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-4.669999999999999</c:v>
+                  <c:v>4.469999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-4.669999999999999</c:v>
+                  <c:v>3.8499999999999979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3917,35 +3624,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-01/11/2016</c:v>
+08/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-02/11/2016</c:v>
+09/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-03/11/2016</c:v>
+10/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-04/11/2016</c:v>
+11/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-05/11/2016</c:v>
+12/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-06/11/2016</c:v>
+13/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-07/11/2016</c:v>
+14/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-08/11/2016</c:v>
+15/11/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3957,28 +3664,28 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5.6875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4.0625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2.4375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.8125</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -4050,35 +3757,35 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Terça
-01/11/2016</c:v>
+08/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Quarta
-02/11/2016</c:v>
+09/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Quinta
-03/11/2016</c:v>
+10/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Sexta
-04/11/2016</c:v>
+11/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Sábado
-05/11/2016</c:v>
+12/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Domingo
-06/11/2016</c:v>
+13/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>Segunda
-07/11/2016</c:v>
+14/11/2016</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Terça
-08/11/2016</c:v>
+15/11/2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4090,31 +3797,31 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.27</c:v>
+                  <c:v>5.58</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.72</c:v>
+                  <c:v>5.16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.3199999999999998</c:v>
+                  <c:v>4.4800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.21</c:v>
+                  <c:v>3.4300000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5.41</c:v>
+                  <c:v>2.8900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-6.46</c:v>
+                  <c:v>2.2400000000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-8.1</c:v>
+                  <c:v>1.0400000000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-8.1</c:v>
+                  <c:v>0.42000000000000071</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4896,13 +4603,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>167010</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>47340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>200385</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>51855</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5272,10 +4979,10 @@
   <sheetPr>
     <tabColor rgb="FF38761D"/>
   </sheetPr>
-  <dimension ref="A1:AB1048573"/>
+  <dimension ref="A1:AB1048569"/>
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5408,26 +5115,26 @@
       <c r="AB3" s="4"/>
     </row>
     <row r="4" spans="1:28" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
-        <v>45</v>
+      <c r="A4" s="33" t="s">
+        <v>30</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="31">
         <v>3</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="36">
         <f>SUM(D4:D9)</f>
         <v>13.5</v>
       </c>
       <c r="F4" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="39">
         <f>SUM(F4:F9)</f>
         <v>10.07</v>
       </c>
@@ -5454,21 +5161,21 @@
       <c r="AB4" s="4"/>
     </row>
     <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="38"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="25" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="31">
         <v>1.5</v>
       </c>
-      <c r="E5" s="41"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="6">
         <v>1.85</v>
       </c>
-      <c r="G5" s="44"/>
+      <c r="G5" s="40"/>
       <c r="H5" s="23" t="s">
         <v>10</v>
       </c>
@@ -5493,21 +5200,21 @@
       <c r="AB5" s="4"/>
     </row>
     <row r="6" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="25" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="31">
         <v>1</v>
       </c>
-      <c r="E6" s="41"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="6">
         <v>0.5</v>
       </c>
-      <c r="G6" s="44"/>
+      <c r="G6" s="40"/>
       <c r="H6" s="23" t="s">
         <v>10</v>
       </c>
@@ -5531,21 +5238,21 @@
       <c r="AB6" s="4"/>
     </row>
     <row r="7" spans="1:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="25" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="31">
         <v>1</v>
       </c>
-      <c r="E7" s="41"/>
+      <c r="E7" s="37"/>
       <c r="F7" s="6">
         <v>0.25</v>
       </c>
-      <c r="G7" s="44"/>
+      <c r="G7" s="40"/>
       <c r="H7" s="23" t="s">
         <v>10</v>
       </c>
@@ -5569,21 +5276,21 @@
       <c r="AB7" s="4"/>
     </row>
     <row r="8" spans="1:28" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="25" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="31">
         <v>2</v>
       </c>
-      <c r="E8" s="41"/>
+      <c r="E8" s="37"/>
       <c r="F8" s="6">
         <v>1.42</v>
       </c>
-      <c r="G8" s="44"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="23" t="s">
         <v>10</v>
       </c>
@@ -5607,21 +5314,21 @@
       <c r="AB8" s="4"/>
     </row>
     <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="39"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="25" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="31">
         <v>5</v>
       </c>
-      <c r="E9" s="42"/>
+      <c r="E9" s="38"/>
       <c r="F9" s="6">
         <v>3.75</v>
       </c>
-      <c r="G9" s="45"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="23" t="s">
         <v>10</v>
       </c>
@@ -5645,20 +5352,28 @@
       <c r="AB9" s="4"/>
     </row>
     <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="33"/>
-      <c r="B10" s="24"/>
+      <c r="A10" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>48</v>
+      </c>
       <c r="C10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="36">
+      <c r="D10" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="E10" s="44">
         <f>SUM(D10:D13)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="36">
+        <v>6.5</v>
+      </c>
+      <c r="F10" s="27">
+        <v>1.34</v>
+      </c>
+      <c r="G10" s="44">
         <f>SUM(F10:F13)</f>
-        <v>0</v>
+        <v>6.08</v>
       </c>
       <c r="H10" s="23" t="s">
         <v>10</v>
@@ -5685,15 +5400,21 @@
       <c r="AB10" s="4"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
-      <c r="B11" s="24"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="24" t="s">
+        <v>49</v>
+      </c>
       <c r="C11" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="36"/>
+      <c r="D11" s="27">
+        <v>2</v>
+      </c>
+      <c r="E11" s="44"/>
+      <c r="F11" s="27">
+        <v>1.73</v>
+      </c>
+      <c r="G11" s="44"/>
       <c r="H11" s="23" t="s">
         <v>10</v>
       </c>
@@ -5719,15 +5440,21 @@
       <c r="AB11" s="4"/>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
-      <c r="B12" s="24"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="24" t="s">
+        <v>50</v>
+      </c>
       <c r="C12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="36"/>
+      <c r="D12" s="27">
+        <v>1</v>
+      </c>
+      <c r="E12" s="44"/>
+      <c r="F12" s="27">
+        <v>1.19</v>
+      </c>
+      <c r="G12" s="44"/>
       <c r="H12" s="23" t="s">
         <v>10</v>
       </c>
@@ -5753,15 +5480,21 @@
       <c r="AB12" s="4"/>
     </row>
     <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="C13" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="36"/>
+      <c r="D13" s="27">
+        <v>2</v>
+      </c>
+      <c r="E13" s="44"/>
+      <c r="F13" s="27">
+        <v>1.82</v>
+      </c>
+      <c r="G13" s="44"/>
       <c r="H13" s="23" t="s">
         <v>10</v>
       </c>
@@ -5786,128 +5519,10 @@
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
     </row>
-    <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="33"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="36">
-        <f>SUM(D14:D17)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="36">
-        <f>SUM(F14:F17)</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-    </row>
-    <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-    </row>
-    <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="23" t="s">
-        <v>10</v>
-      </c>
-    </row>
+    <row r="1048555" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048556" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048557" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048558" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048559" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048560" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048561" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5919,15 +5534,15 @@
     <row r="1048567" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048568" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1048569" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048570" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048571" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048572" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="G14:G17"/>
+  <mergeCells count="14">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="E4:E9"/>
@@ -5935,21 +5550,14 @@
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="G10:G13"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:I3">
-    <cfRule type="expression" dxfId="184" priority="2">
+    <cfRule type="expression" dxfId="166" priority="2">
       <formula>LEN(TRIM(I1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I3">
-    <cfRule type="notContainsText" dxfId="183" priority="3" operator="notContains" text="676766676ppppp"/>
+    <cfRule type="notContainsText" dxfId="165" priority="3" operator="notContains" text="676766676ppppp"/>
   </conditionalFormatting>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -5963,9 +5571,9 @@
   </sheetPr>
   <dimension ref="A1:S1048575"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
+    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5986,20 +5594,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="47"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47" t="s">
+      <c r="A1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
@@ -6058,40 +5666,40 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="48">
+      <c r="A3" s="47">
         <v>8</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="49" t="s">
+      <c r="C3" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="L3" s="48" t="s">
         <v>16</v>
       </c>
       <c r="M3" s="8"/>
@@ -6103,18 +5711,18 @@
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -6129,35 +5737,35 @@
       </c>
       <c r="B5" s="13">
         <f>SUM('Sprint Backlog'!D:D)</f>
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="C5" s="14">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
-        <v>11.8125</v>
+        <v>17.5</v>
       </c>
       <c r="D5" s="14">
         <f t="shared" si="1"/>
-        <v>10.125</v>
+        <v>15</v>
       </c>
       <c r="E5" s="14">
         <f t="shared" si="1"/>
-        <v>8.4375</v>
+        <v>12.5</v>
       </c>
       <c r="F5" s="14">
         <f t="shared" si="1"/>
-        <v>6.75</v>
+        <v>10</v>
       </c>
       <c r="G5" s="14">
         <f t="shared" si="1"/>
-        <v>5.0625</v>
+        <v>7.5</v>
       </c>
       <c r="H5" s="14">
         <f t="shared" si="1"/>
-        <v>3.375</v>
+        <v>5</v>
       </c>
       <c r="I5" s="14">
         <f t="shared" si="1"/>
-        <v>1.6875</v>
+        <v>2.5</v>
       </c>
       <c r="J5" s="14">
         <f t="shared" si="1"/>
@@ -6165,11 +5773,11 @@
       </c>
       <c r="K5" s="14">
         <f>SUM(C5:J5)</f>
-        <v>47.25</v>
+        <v>70</v>
       </c>
       <c r="L5" s="14">
         <f>K5/A$3</f>
-        <v>5.90625</v>
+        <v>8.75</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -6185,47 +5793,47 @@
       </c>
       <c r="B6" s="13">
         <f>B5</f>
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="C6" s="14">
         <f t="shared" ref="C6:J6" si="2">B6-C9</f>
-        <v>12.23</v>
+        <v>19.079999999999998</v>
       </c>
       <c r="D6" s="14">
         <f t="shared" si="2"/>
-        <v>9.48</v>
+        <v>16.36</v>
       </c>
       <c r="E6" s="14">
         <f t="shared" si="2"/>
-        <v>7.03</v>
+        <v>13.829999999999998</v>
       </c>
       <c r="F6" s="14">
         <f t="shared" si="2"/>
-        <v>4.6400000000000006</v>
+        <v>12.279999999999998</v>
       </c>
       <c r="G6" s="14">
         <f t="shared" si="2"/>
-        <v>3.1900000000000004</v>
+        <v>11.489999999999998</v>
       </c>
       <c r="H6" s="14">
         <f t="shared" si="2"/>
-        <v>0.72000000000000064</v>
+        <v>9.4199999999999982</v>
       </c>
       <c r="I6" s="14">
         <f t="shared" si="2"/>
-        <v>-4.669999999999999</v>
+        <v>4.469999999999998</v>
       </c>
       <c r="J6" s="14">
         <f t="shared" si="2"/>
-        <v>-4.669999999999999</v>
+        <v>3.8499999999999979</v>
       </c>
       <c r="K6" s="14">
         <f>SUM(C6:J6)</f>
-        <v>27.95</v>
+        <v>90.779999999999987</v>
       </c>
       <c r="L6" s="14">
         <f>K6/A$3</f>
-        <v>3.4937499999999999</v>
+        <v>11.347499999999998</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -6263,18 +5871,18 @@
       <c r="B8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -6289,47 +5897,47 @@
       </c>
       <c r="B9" s="17">
         <f>B5/A3</f>
-        <v>1.6875</v>
+        <v>2.5</v>
       </c>
       <c r="C9" s="17">
         <f t="shared" ref="C9:K9" si="3">SUM(C10:C11)</f>
-        <v>1.27</v>
+        <v>0.92</v>
       </c>
       <c r="D9" s="17">
         <f t="shared" si="3"/>
-        <v>2.75</v>
+        <v>2.7199999999999998</v>
       </c>
       <c r="E9" s="17">
         <f t="shared" si="3"/>
-        <v>2.4500000000000002</v>
+        <v>2.5300000000000002</v>
       </c>
       <c r="F9" s="17">
         <f t="shared" si="3"/>
-        <v>2.3899999999999997</v>
+        <v>1.55</v>
       </c>
       <c r="G9" s="17">
         <f t="shared" si="3"/>
-        <v>1.45</v>
+        <v>0.79</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="3"/>
-        <v>2.4699999999999998</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" si="3"/>
-        <v>5.39</v>
+        <v>4.95</v>
       </c>
       <c r="J9" s="17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="K9" s="17">
         <f t="shared" si="3"/>
-        <v>18.170000000000002</v>
+        <v>16.150000000000002</v>
       </c>
       <c r="L9" s="17">
         <f>K9/A$3</f>
-        <v>2.2712500000000002</v>
+        <v>2.0187500000000003</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -6345,47 +5953,47 @@
       </c>
       <c r="B10" s="19">
         <f>'Danilo Burndown'!B9</f>
-        <v>0</v>
+        <v>0.8125</v>
       </c>
       <c r="C10" s="14">
         <f>'Danilo Burndown'!C9</f>
-        <v>1.27</v>
+        <v>0.92</v>
       </c>
       <c r="D10" s="14">
         <f>'Danilo Burndown'!D9</f>
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="E10" s="14">
         <f>'Danilo Burndown'!E9</f>
-        <v>0.6</v>
+        <v>0.68</v>
       </c>
       <c r="F10" s="14">
         <f>'Danilo Burndown'!F9</f>
-        <v>1.89</v>
+        <v>1.05</v>
       </c>
       <c r="G10" s="14">
         <f>'Danilo Burndown'!G9</f>
-        <v>1.2</v>
+        <v>0.54</v>
       </c>
       <c r="H10" s="14">
         <f>'Danilo Burndown'!H9</f>
-        <v>1.05</v>
+        <v>0.65</v>
       </c>
       <c r="I10" s="14">
         <f>'Danilo Burndown'!I9</f>
-        <v>1.64</v>
+        <v>1.2</v>
       </c>
       <c r="J10" s="14">
         <f>'Danilo Burndown'!J9</f>
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="K10" s="14">
         <f>SUM(C10:J10)</f>
-        <v>8.1</v>
+        <v>6.080000000000001</v>
       </c>
       <c r="L10" s="14">
         <f>K10/A$3</f>
-        <v>1.0125</v>
+        <v>0.76000000000000012</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
@@ -6474,710 +6082,710 @@
     <mergeCell ref="L3:L4"/>
   </mergeCells>
   <conditionalFormatting sqref="C10 B10:B11">
-    <cfRule type="expression" dxfId="182" priority="2">
+    <cfRule type="expression" dxfId="164" priority="2">
       <formula>LEN(TRIM(B10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="181" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="180" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="162" priority="4" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:B11">
-    <cfRule type="notContainsText" dxfId="179" priority="6" operator="notContains" text="9875894754())("/>
+    <cfRule type="notContainsText" dxfId="161" priority="6" operator="notContains" text="9875894754())("/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="178" priority="7">
+    <cfRule type="expression" dxfId="160" priority="7">
       <formula>LEN(TRIM(K5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="177" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="176" priority="9" operator="notEqual">
+    <cfRule type="cellIs" dxfId="158" priority="9" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="175" priority="10">
+    <cfRule type="expression" dxfId="157" priority="10">
       <formula>LEN(TRIM(K5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="174" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="cellIs" dxfId="173" priority="12" operator="notEqual">
+    <cfRule type="cellIs" dxfId="155" priority="12" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="172" priority="13">
+    <cfRule type="expression" dxfId="154" priority="13">
       <formula>LEN(TRIM(K6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="171" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="170" priority="15" operator="notEqual">
+    <cfRule type="cellIs" dxfId="152" priority="15" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="169" priority="16">
+    <cfRule type="expression" dxfId="151" priority="16">
       <formula>LEN(TRIM(K6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="168" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="cellIs" dxfId="167" priority="18" operator="notEqual">
+    <cfRule type="cellIs" dxfId="149" priority="18" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="166" priority="19">
+    <cfRule type="expression" dxfId="148" priority="19">
       <formula>LEN(TRIM(L6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="165" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="164" priority="21" operator="notEqual">
+    <cfRule type="cellIs" dxfId="146" priority="21" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="163" priority="22">
+    <cfRule type="expression" dxfId="145" priority="22">
       <formula>LEN(TRIM(L6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="162" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="cellIs" dxfId="161" priority="24" operator="notEqual">
+    <cfRule type="cellIs" dxfId="143" priority="24" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="160" priority="25">
+    <cfRule type="expression" dxfId="142" priority="25">
       <formula>LEN(TRIM(L5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="159" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="158" priority="27" operator="notEqual">
+    <cfRule type="cellIs" dxfId="140" priority="27" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="157" priority="28">
+    <cfRule type="expression" dxfId="139" priority="28">
       <formula>LEN(TRIM(L5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="156" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="cellIs" dxfId="155" priority="30" operator="notEqual">
+    <cfRule type="cellIs" dxfId="137" priority="30" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="154" priority="31">
+    <cfRule type="expression" dxfId="136" priority="31">
       <formula>LEN(TRIM(K10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="153" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="152" priority="33" operator="notEqual">
+    <cfRule type="cellIs" dxfId="134" priority="33" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="151" priority="34">
+    <cfRule type="expression" dxfId="133" priority="34">
       <formula>LEN(TRIM(K10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="150" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="149" priority="36" operator="notEqual">
+    <cfRule type="cellIs" dxfId="131" priority="36" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="148" priority="43">
+    <cfRule type="expression" dxfId="130" priority="43">
       <formula>LEN(TRIM(K11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="147" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="44" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="146" priority="45" operator="notEqual">
+    <cfRule type="cellIs" dxfId="128" priority="45" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="145" priority="46">
+    <cfRule type="expression" dxfId="127" priority="46">
       <formula>LEN(TRIM(K11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="144" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="143" priority="48" operator="notEqual">
+    <cfRule type="cellIs" dxfId="125" priority="48" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="142" priority="49">
+    <cfRule type="expression" dxfId="124" priority="49">
       <formula>LEN(TRIM(L10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="141" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="50" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="140" priority="51" operator="notEqual">
+    <cfRule type="cellIs" dxfId="122" priority="51" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="139" priority="52">
+    <cfRule type="expression" dxfId="121" priority="52">
       <formula>LEN(TRIM(L10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="138" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="137" priority="54" operator="notEqual">
+    <cfRule type="cellIs" dxfId="119" priority="54" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="expression" dxfId="136" priority="61">
+    <cfRule type="expression" dxfId="118" priority="61">
       <formula>LEN(TRIM(L11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="135" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="62" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="134" priority="63" operator="notEqual">
+    <cfRule type="cellIs" dxfId="116" priority="63" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="expression" dxfId="133" priority="64">
+    <cfRule type="expression" dxfId="115" priority="64">
       <formula>LEN(TRIM(L11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="132" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="65" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="131" priority="66" operator="notEqual">
+    <cfRule type="cellIs" dxfId="113" priority="66" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="130" priority="67">
+    <cfRule type="expression" dxfId="112" priority="67">
       <formula>LEN(TRIM(D10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="129" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="68" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="128" priority="69" operator="notEqual">
+    <cfRule type="cellIs" dxfId="110" priority="69" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="expression" dxfId="127" priority="70">
+    <cfRule type="expression" dxfId="109" priority="70">
       <formula>LEN(TRIM(D10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="126" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="71" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="125" priority="72" operator="notEqual">
+    <cfRule type="cellIs" dxfId="107" priority="72" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="124" priority="73">
+    <cfRule type="expression" dxfId="106" priority="73">
       <formula>LEN(TRIM(E10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="123" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="74" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="122" priority="75" operator="notEqual">
+    <cfRule type="cellIs" dxfId="104" priority="75" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="121" priority="76">
+    <cfRule type="expression" dxfId="103" priority="76">
       <formula>LEN(TRIM(E10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="120" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="77" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="119" priority="78" operator="notEqual">
+    <cfRule type="cellIs" dxfId="101" priority="78" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="118" priority="79">
+    <cfRule type="expression" dxfId="100" priority="79">
       <formula>LEN(TRIM(F10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="117" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="80" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="116" priority="81" operator="notEqual">
+    <cfRule type="cellIs" dxfId="98" priority="81" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="expression" dxfId="115" priority="82">
+    <cfRule type="expression" dxfId="97" priority="82">
       <formula>LEN(TRIM(F10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="114" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="83" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="113" priority="84" operator="notEqual">
+    <cfRule type="cellIs" dxfId="95" priority="84" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="112" priority="85">
+    <cfRule type="expression" dxfId="94" priority="85">
       <formula>LEN(TRIM(G10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="111" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="86" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="110" priority="87" operator="notEqual">
+    <cfRule type="cellIs" dxfId="92" priority="87" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="109" priority="88">
+    <cfRule type="expression" dxfId="91" priority="88">
       <formula>LEN(TRIM(G10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="108" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="89" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="107" priority="90" operator="notEqual">
+    <cfRule type="cellIs" dxfId="89" priority="90" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="106" priority="91">
+    <cfRule type="expression" dxfId="88" priority="91">
       <formula>LEN(TRIM(H10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="105" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="92" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="104" priority="93" operator="notEqual">
+    <cfRule type="cellIs" dxfId="86" priority="93" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="103" priority="94">
+    <cfRule type="expression" dxfId="85" priority="94">
       <formula>LEN(TRIM(H10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="102" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="95" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="101" priority="96" operator="notEqual">
+    <cfRule type="cellIs" dxfId="83" priority="96" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="100" priority="97">
+    <cfRule type="expression" dxfId="82" priority="97">
       <formula>LEN(TRIM(I10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="99" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="98" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="98" priority="99" operator="notEqual">
+    <cfRule type="cellIs" dxfId="80" priority="99" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="97" priority="100">
+    <cfRule type="expression" dxfId="79" priority="100">
       <formula>LEN(TRIM(I10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="96" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="101" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="95" priority="102" operator="notEqual">
+    <cfRule type="cellIs" dxfId="77" priority="102" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="94" priority="103">
+    <cfRule type="expression" dxfId="76" priority="103">
       <formula>LEN(TRIM(J10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="93" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="104" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="92" priority="105" operator="notEqual">
+    <cfRule type="cellIs" dxfId="74" priority="105" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="91" priority="106">
+    <cfRule type="expression" dxfId="73" priority="106">
       <formula>LEN(TRIM(J10))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="90" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="107" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="89" priority="108" operator="notEqual">
+    <cfRule type="cellIs" dxfId="71" priority="108" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="88" priority="115">
+    <cfRule type="expression" dxfId="70" priority="115">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="87" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="116" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="86" priority="117" operator="notEqual">
+    <cfRule type="cellIs" dxfId="68" priority="117" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="85" priority="118">
+    <cfRule type="expression" dxfId="67" priority="118">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="84" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="119" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="83" priority="120" operator="notEqual">
+    <cfRule type="cellIs" dxfId="65" priority="120" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="82" priority="163">
+    <cfRule type="expression" dxfId="64" priority="163">
       <formula>LEN(TRIM(D11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="81" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="164" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="80" priority="165" operator="notEqual">
+    <cfRule type="cellIs" dxfId="62" priority="165" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="79" priority="166">
+    <cfRule type="expression" dxfId="61" priority="166">
       <formula>LEN(TRIM(D11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="78" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="167" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="77" priority="168" operator="notEqual">
+    <cfRule type="cellIs" dxfId="59" priority="168" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="76" priority="169">
+    <cfRule type="expression" dxfId="58" priority="169">
       <formula>LEN(TRIM(E11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="75" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="170" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="74" priority="171" operator="notEqual">
+    <cfRule type="cellIs" dxfId="56" priority="171" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="73" priority="172">
+    <cfRule type="expression" dxfId="55" priority="172">
       <formula>LEN(TRIM(E11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="72" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="173" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="71" priority="174" operator="notEqual">
+    <cfRule type="cellIs" dxfId="53" priority="174" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="70" priority="175">
+    <cfRule type="expression" dxfId="52" priority="175">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="69" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="176" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="68" priority="177" operator="notEqual">
+    <cfRule type="cellIs" dxfId="50" priority="177" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="expression" dxfId="67" priority="178">
+    <cfRule type="expression" dxfId="49" priority="178">
       <formula>LEN(TRIM(F11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="66" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="179" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="65" priority="180" operator="notEqual">
+    <cfRule type="cellIs" dxfId="47" priority="180" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="64" priority="181">
+    <cfRule type="expression" dxfId="46" priority="181">
       <formula>LEN(TRIM(G11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="63" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="182" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="62" priority="183" operator="notEqual">
+    <cfRule type="cellIs" dxfId="44" priority="183" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="61" priority="184">
+    <cfRule type="expression" dxfId="43" priority="184">
       <formula>LEN(TRIM(G11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="60" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="185" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="59" priority="186" operator="notEqual">
+    <cfRule type="cellIs" dxfId="41" priority="186" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="58" priority="187">
+    <cfRule type="expression" dxfId="40" priority="187">
       <formula>LEN(TRIM(H11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="57" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="188" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="56" priority="189" operator="notEqual">
+    <cfRule type="cellIs" dxfId="38" priority="189" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="55" priority="190">
+    <cfRule type="expression" dxfId="37" priority="190">
       <formula>LEN(TRIM(H11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="54" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="191" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="53" priority="192" operator="notEqual">
+    <cfRule type="cellIs" dxfId="35" priority="192" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="52" priority="193">
+    <cfRule type="expression" dxfId="34" priority="193">
       <formula>LEN(TRIM(I11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="51" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="194" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="50" priority="195" operator="notEqual">
+    <cfRule type="cellIs" dxfId="32" priority="195" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="49" priority="196">
+    <cfRule type="expression" dxfId="31" priority="196">
       <formula>LEN(TRIM(I11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="48" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="197" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="47" priority="198" operator="notEqual">
+    <cfRule type="cellIs" dxfId="29" priority="198" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="46" priority="199">
+    <cfRule type="expression" dxfId="28" priority="199">
       <formula>LEN(TRIM(J11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="45" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="200" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="44" priority="201" operator="notEqual">
+    <cfRule type="cellIs" dxfId="26" priority="201" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="43" priority="202">
+    <cfRule type="expression" dxfId="25" priority="202">
       <formula>LEN(TRIM(J11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="42" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="203" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="41" priority="204" operator="notEqual">
+    <cfRule type="cellIs" dxfId="23" priority="204" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7192,11 +6800,11 @@
   <sheetPr>
     <tabColor rgb="FFC9DAF8"/>
   </sheetPr>
-  <dimension ref="A1:S1048574"/>
+  <dimension ref="A1:S1048570"/>
   <sheetViews>
     <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:J4"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7210,20 +6818,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="47"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="A1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
@@ -7282,40 +6890,40 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="48">
+      <c r="A3" s="47">
         <v>8</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="49" t="s">
+      <c r="C3" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="L3" s="48" t="s">
         <v>16</v>
       </c>
       <c r="M3" s="8"/>
@@ -7327,18 +6935,18 @@
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -7353,35 +6961,35 @@
       </c>
       <c r="B5" s="13">
         <f>SUMIF('Sprint Backlog'!C:C,"=Danilo",'Sprint Backlog'!D:D)</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="C5" s="14">
         <f t="shared" ref="C5:J5" si="1">B5-$B9</f>
-        <v>0</v>
+        <v>5.6875</v>
       </c>
       <c r="D5" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.875</v>
       </c>
       <c r="E5" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.0625</v>
       </c>
       <c r="F5" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="G5" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.4375</v>
       </c>
       <c r="H5" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.625</v>
       </c>
       <c r="I5" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8125</v>
       </c>
       <c r="J5" s="14">
         <f t="shared" si="1"/>
@@ -7389,11 +6997,11 @@
       </c>
       <c r="K5" s="14">
         <f>SUM(C5:J5)</f>
-        <v>0</v>
+        <v>22.75</v>
       </c>
       <c r="L5" s="14">
         <f>K5/A$3</f>
-        <v>0</v>
+        <v>2.84375</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -7409,47 +7017,47 @@
       </c>
       <c r="B6" s="13">
         <f>B5</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="C6" s="14">
         <f>B6-C9</f>
-        <v>-1.27</v>
+        <v>5.58</v>
       </c>
       <c r="D6" s="14">
         <f t="shared" ref="D6:J6" si="2">C6-D9</f>
-        <v>-1.72</v>
+        <v>5.16</v>
       </c>
       <c r="E6" s="14">
         <f t="shared" si="2"/>
-        <v>-2.3199999999999998</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="F6" s="14">
         <f t="shared" si="2"/>
-        <v>-4.21</v>
+        <v>3.4300000000000006</v>
       </c>
       <c r="G6" s="14">
         <f t="shared" si="2"/>
-        <v>-5.41</v>
+        <v>2.8900000000000006</v>
       </c>
       <c r="H6" s="14">
         <f t="shared" si="2"/>
-        <v>-6.46</v>
+        <v>2.2400000000000007</v>
       </c>
       <c r="I6" s="14">
         <f t="shared" si="2"/>
-        <v>-8.1</v>
+        <v>1.0400000000000007</v>
       </c>
       <c r="J6" s="14">
         <f t="shared" si="2"/>
-        <v>-8.1</v>
+        <v>0.42000000000000071</v>
       </c>
       <c r="K6" s="14">
         <f>SUM(C6:J6)</f>
-        <v>-37.590000000000003</v>
+        <v>25.240000000000006</v>
       </c>
       <c r="L6" s="14">
         <f>K6/A$3</f>
-        <v>-4.6987500000000004</v>
+        <v>3.1550000000000007</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
@@ -7487,18 +7095,18 @@
       <c r="B8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
+      <c r="C8" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -7508,52 +7116,52 @@
       <c r="S8" s="8"/>
     </row>
     <row r="9" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="29">
         <f>B5/A3</f>
-        <v>0</v>
+        <v>0.8125</v>
       </c>
       <c r="C9" s="17">
-        <f t="shared" ref="C9:I9" si="3">SUM(C10:C17)</f>
-        <v>1.27</v>
+        <f t="shared" ref="C9:L9" si="3">SUM(C10:C13)</f>
+        <v>0.92</v>
       </c>
       <c r="D9" s="17">
         <f t="shared" si="3"/>
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="E9" s="17">
         <f t="shared" si="3"/>
-        <v>0.6</v>
+        <v>0.68</v>
       </c>
       <c r="F9" s="17">
         <f t="shared" si="3"/>
-        <v>1.89</v>
+        <v>1.05</v>
       </c>
       <c r="G9" s="17">
         <f t="shared" si="3"/>
-        <v>1.2</v>
+        <v>0.54</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="3"/>
-        <v>1.05</v>
+        <v>0.65</v>
       </c>
       <c r="I9" s="17">
         <f t="shared" si="3"/>
-        <v>1.64</v>
+        <v>1.2</v>
       </c>
       <c r="J9" s="17">
-        <f t="shared" ref="J9" si="4">SUM(J10:J11)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.62</v>
       </c>
       <c r="K9" s="17">
-        <f>SUM(K10:K17)</f>
-        <v>10.040000000000001</v>
+        <f t="shared" si="3"/>
+        <v>6.08</v>
       </c>
       <c r="L9" s="17">
-        <f>SUM(L10:L17)</f>
-        <v>1.2550000000000001</v>
+        <f t="shared" si="3"/>
+        <v>0.76</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
@@ -7564,14 +7172,16 @@
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="28">
-        <v>0.36</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="14"/>
+      <c r="A10" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="52"/>
+      <c r="C10" s="28">
+        <v>0.92</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0.42</v>
+      </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
@@ -7580,209 +7190,119 @@
       <c r="J10" s="14"/>
       <c r="K10" s="14">
         <f>SUM(B10:J10)</f>
-        <v>0.36</v>
+        <v>1.34</v>
       </c>
       <c r="L10" s="14">
-        <f t="shared" ref="L10:L16" si="5">K10/A$3</f>
-        <v>4.4999999999999998E-2</v>
+        <f t="shared" ref="L10:L13" si="4">K10/A$3</f>
+        <v>0.16750000000000001</v>
       </c>
       <c r="M10" s="8"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28">
-        <v>1.27</v>
-      </c>
+      <c r="A11" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="52"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="E11" s="14">
+        <v>0.68</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1.05</v>
+      </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14">
-        <f t="shared" ref="K11:K16" si="6">SUM(C11:J11)</f>
-        <v>1.27</v>
+        <f t="shared" ref="K11:K13" si="5">SUM(C11:J11)</f>
+        <v>1.73</v>
       </c>
       <c r="L11" s="14">
-        <f t="shared" si="5"/>
-        <v>0.15875</v>
+        <f t="shared" si="4"/>
+        <v>0.21625</v>
       </c>
       <c r="M11" s="8"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="28"/>
+      <c r="A12" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="52"/>
       <c r="C12" s="28"/>
-      <c r="D12" s="14">
-        <v>0.45</v>
-      </c>
+      <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+      <c r="G12" s="14">
+        <v>0.54</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0.65</v>
+      </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
       <c r="K12" s="14">
-        <f t="shared" si="6"/>
-        <v>0.45</v>
+        <f t="shared" si="5"/>
+        <v>1.19</v>
       </c>
       <c r="L12" s="14">
-        <f t="shared" si="5"/>
-        <v>5.6250000000000001E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.14874999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="28"/>
+      <c r="A13" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="52"/>
       <c r="C13" s="28"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="14">
-        <v>0.6</v>
-      </c>
+      <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
+      <c r="I13" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0.62</v>
+      </c>
       <c r="K13" s="14">
-        <f t="shared" si="6"/>
-        <v>0.6</v>
+        <f t="shared" si="5"/>
+        <v>1.8199999999999998</v>
       </c>
       <c r="L13" s="14">
-        <f t="shared" si="5"/>
-        <v>7.4999999999999997E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.22749999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14">
-        <v>1.89</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14">
-        <f t="shared" si="6"/>
-        <v>1.89</v>
-      </c>
-      <c r="L14" s="14">
-        <f t="shared" si="5"/>
-        <v>0.23624999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14">
-        <v>1.2</v>
-      </c>
-      <c r="H15" s="14">
-        <v>1.05</v>
-      </c>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14">
-        <f t="shared" si="6"/>
-        <v>2.25</v>
-      </c>
-      <c r="L15" s="14">
-        <f t="shared" si="5"/>
-        <v>0.28125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29">
-        <v>1.64</v>
-      </c>
-      <c r="J16" s="29"/>
-      <c r="K16" s="14">
-        <f t="shared" si="6"/>
-        <v>1.64</v>
-      </c>
-      <c r="L16" s="14">
-        <f t="shared" si="5"/>
-        <v>0.20499999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29">
-        <v>1.58</v>
-      </c>
-      <c r="K17" s="14">
-        <f t="shared" ref="K17" si="7">SUM(C17:J17)</f>
-        <v>1.58</v>
-      </c>
-      <c r="L17" s="14">
-        <f t="shared" ref="L17" si="8">K17/A$3</f>
-        <v>0.19750000000000001</v>
-      </c>
-    </row>
-    <row r="1048571" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048572" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048573" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1048574" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048567" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048568" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048569" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1048570" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
+  <mergeCells count="21">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -7794,132 +7314,44 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
   </mergeCells>
-  <conditionalFormatting sqref="C18:L94 C10:L11 N10:O11 C16:J16">
-    <cfRule type="expression" dxfId="40" priority="25">
+  <conditionalFormatting sqref="C14:L90 C10:L11 N10:O11">
+    <cfRule type="expression" dxfId="22" priority="25">
       <formula>LEN(TRIM(C10))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C18:L94 C10:L11 C16:J16">
-    <cfRule type="cellIs" dxfId="39" priority="26" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18:L94 C10:L11 C16:J16">
-    <cfRule type="cellIs" dxfId="38" priority="27" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:B94">
-    <cfRule type="expression" dxfId="37" priority="28">
-      <formula>LEN(TRIM(A18))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18:B94 N10:O11">
-    <cfRule type="notContainsText" dxfId="36" priority="29" operator="notContains" text="9875894754())("/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:L15">
-    <cfRule type="expression" dxfId="35" priority="19">
+  <conditionalFormatting sqref="C14:L90 C10:L11">
+    <cfRule type="cellIs" dxfId="21" priority="26" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14:L90 C10:L11">
+    <cfRule type="cellIs" dxfId="20" priority="27" operator="notEqual">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:B90">
+    <cfRule type="expression" dxfId="19" priority="28">
+      <formula>LEN(TRIM(A14))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:B90 N10:O11">
+    <cfRule type="notContainsText" dxfId="18" priority="29" operator="notContains" text="9875894754())("/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:L13">
+    <cfRule type="expression" dxfId="17" priority="19">
       <formula>LEN(TRIM(C12))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:L15">
-    <cfRule type="cellIs" dxfId="34" priority="20" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:L15">
-    <cfRule type="cellIs" dxfId="33" priority="21" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16 B10:B11">
-    <cfRule type="expression" dxfId="32" priority="16">
-      <formula>LEN(TRIM(B10))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16 B10:B11">
-    <cfRule type="cellIs" dxfId="31" priority="17" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16 B10:B11">
-    <cfRule type="cellIs" dxfId="30" priority="18" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:B15">
-    <cfRule type="expression" dxfId="29" priority="13">
-      <formula>LEN(TRIM(B12))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:B15">
-    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:B15">
-    <cfRule type="cellIs" dxfId="27" priority="15" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16:L16">
-    <cfRule type="expression" dxfId="26" priority="10">
-      <formula>LEN(TRIM(K16))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16:L16">
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16:L16">
-    <cfRule type="cellIs" dxfId="24" priority="12" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:J17">
-    <cfRule type="expression" dxfId="23" priority="7">
-      <formula>LEN(TRIM(C17))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:J17">
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:J17">
-    <cfRule type="cellIs" dxfId="21" priority="9" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
-    <cfRule type="expression" dxfId="20" priority="4">
-      <formula>LEN(TRIM(B17))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="notEqual">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17:L17">
-    <cfRule type="expression" dxfId="17" priority="1">
-      <formula>LEN(TRIM(K17))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17:L17">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17:L17">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="notEqual">
+  <conditionalFormatting sqref="C12:L13">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:L13">
+    <cfRule type="cellIs" dxfId="15" priority="21" operator="notEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7936,9 +7368,9 @@
   </sheetPr>
   <dimension ref="A1:S1048576"/>
   <sheetViews>
-    <sheetView windowProtection="1" showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
+    <sheetView windowProtection="1" showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7952,20 +7384,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="47"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="A1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
@@ -8024,40 +7456,40 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="48">
+      <c r="A3" s="47">
         <v>8</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" s="49" t="s">
+      <c r="C3" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="L3" s="48" t="s">
         <v>16</v>
       </c>
       <c r="M3" s="8"/>
@@ -8069,18 +7501,18 @@
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -8229,18 +7661,18 @@
       <c r="B8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
+      <c r="C8" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
@@ -8306,10 +7738,10 @@
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" ht="23.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="51"/>
+      <c r="A10" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="50"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14">
         <v>2.2999999999999998</v>
@@ -8337,10 +7769,10 @@
       <c r="S10" s="8"/>
     </row>
     <row r="11" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="52"/>
+      <c r="A11" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="51"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14">
@@ -8368,10 +7800,10 @@
       <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="52" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="52"/>
+      <c r="A12" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="51"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -8400,7 +7832,7 @@
     </row>
     <row r="13" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="53" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B13" s="54"/>
       <c r="C13" s="14"/>
@@ -8431,7 +7863,7 @@
     </row>
     <row r="14" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="53" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B14" s="54"/>
       <c r="C14" s="14"/>
@@ -8462,7 +7894,7 @@
     </row>
     <row r="15" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="53" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="B15" s="54"/>
       <c r="C15" s="14"/>
@@ -8497,11 +7929,6 @@
     <row r="1048576" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A1:B1"/>
@@ -8518,6 +7945,11 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:L13 C16:L96">
     <cfRule type="expression" dxfId="14" priority="12">
